--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$55</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$57</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>RnD CCS fuel use reduction</t>
   </si>
@@ -342,6 +342,12 @@
   <si>
     <t>first model year.)</t>
   </si>
+  <si>
+    <t>land peatland restoration</t>
+  </si>
+  <si>
+    <t>land forest restoration</t>
+  </si>
 </sst>
 </file>
 
@@ -643,7 +649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$63:$AJ$63</c:f>
+              <c:f>FoPITY!$B$65:$AJ$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -767,11 +773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146461056"/>
-        <c:axId val="154930176"/>
+        <c:axId val="180502528"/>
+        <c:axId val="180504064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146461056"/>
+        <c:axId val="180502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154930176"/>
+        <c:crossAx val="180504064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -789,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154930176"/>
+        <c:axId val="180504064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146461056"/>
+        <c:crossAx val="180502528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$63:$AJ$63</c:f>
+              <c:f>FoPITY!$B$65:$AJ$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1083,11 +1089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144005760"/>
-        <c:axId val="144015744"/>
+        <c:axId val="198870144"/>
+        <c:axId val="198871680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144005760"/>
+        <c:axId val="198870144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144015744"/>
+        <c:crossAx val="198871680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144015744"/>
+        <c:axId val="198871680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144005760"/>
+        <c:crossAx val="198870144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,13 +1182,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1640,7 +1646,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
@@ -1650,7 +1656,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1681,7 +1687,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ63"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3160,7 +3166,7 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:C19" si="5">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B13:C17" si="5">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C13">
@@ -3995,7 +4001,7 @@
         <v>88</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C19">
@@ -6357,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:S49" si="18">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D48:S51" si="18">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E48">
@@ -7959,7 +7965,7 @@
         <v>0.5</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:AI49" si="19">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T48:AI51" si="19">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U48">
@@ -8023,7 +8029,7 @@
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ48">
-        <f t="shared" ref="AJ48:AJ49" si="20">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ48:AJ51" si="20">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8177,108 +8183,143 @@
         <v>73</v>
       </c>
       <c r="B50">
+        <f t="shared" ref="B50:C50" si="21">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.5</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ50">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8287,108 +8328,143 @@
         <v>68</v>
       </c>
       <c r="B51">
+        <f t="shared" ref="B51:C51" si="22">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.5</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ51">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8405,135 +8481,135 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:S53" si="21">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D52:S53" si="23">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:AI53" si="22">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T52:AI53" si="24">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ52">
-        <f t="shared" ref="AJ52:AJ53" si="23">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ52:AJ53" si="25">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8550,429 +8626,361 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9116,7 +9124,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9260,7 +9268,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9404,7 +9412,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9548,7 +9556,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9692,7 +9700,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9836,7 +9844,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9980,7 +9988,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10118,6 +10126,294 @@
         <v>0.99394019850841575</v>
       </c>
       <c r="AJ63">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ65">
         <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
         <v>0.99550372683905886</v>
       </c>
